--- a/Character_Gen/Races/Dragonborn.xlsx
+++ b/Character_Gen/Races/Dragonborn.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{4434013D-41ED-4CA4-A1E1-C423A1B24F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D8397A-BE8A-4664-811C-9DAC6DAF2812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8040" yWindow="4215" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Ability Score</t>
   </si>
@@ -60,6 +60,60 @@
   </si>
   <si>
     <t>You have resistance to the damage type associated with your ancestry.</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>5' by 30' line (Dex save)</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Brass</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>15' cone (Dex save)</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>15' cone (Con save)</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -408,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +471,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,8 +487,17 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,8 +510,20 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -461,21 +536,106 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
